--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DylanGybels\Desktop\GIT\Magics\Test_Excel_to_JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2889BBD-90E2-435D-A30D-5C7E8D885B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE1651-169B-4AB2-AA31-96E5CB3BB0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>152</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DylanGybels\Desktop\GIT\Magics\Test_Excel_to_JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE1651-169B-4AB2-AA31-96E5CB3BB0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0C99F-500E-48B1-BA1C-82840AACD658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>5</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DylanGybels\Desktop\GIT\Magics\Test_Excel_to_JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE0C99F-500E-48B1-BA1C-82840AACD658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5085307-DD7D-4811-9553-6D708C1E3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>1500</v>
       </c>
       <c r="D2">
         <v>20</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DylanGybels\Desktop\GIT\Magics\Test_Excel_to_JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5085307-DD7D-4811-9553-6D708C1E3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60F149-1D18-488E-A18C-B956A5C92357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>20</v>
